--- a/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
+++ b/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="4037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="4056">
   <si>
     <t>1r</t>
   </si>
@@ -12560,9 +12560,6 @@
     <t>XXXX</t>
   </si>
   <si>
-    <t>Marriage</t>
-  </si>
-  <si>
     <t>Catholic Church</t>
   </si>
   <si>
@@ -12590,15 +12587,6 @@
     <t>http://pitchfork.com/</t>
   </si>
   <si>
-    <t>'Murica</t>
-  </si>
-  <si>
-    <t>MF Doom</t>
-  </si>
-  <si>
-    <t>rapperName</t>
-  </si>
-  <si>
     <t>Pisarro</t>
   </si>
   <si>
@@ -12629,9 +12617,6 @@
     <t>This is a second note.</t>
   </si>
   <si>
-    <t>180 x 90 cm</t>
-  </si>
-  <si>
     <t>http://daringfireball.net</t>
   </si>
   <si>
@@ -12663,6 +12648,78 @@
   </si>
   <si>
     <t>Religious</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>xyzCorp</t>
+  </si>
+  <si>
+    <t>1232J</t>
+  </si>
+  <si>
+    <t>City of Philadelphia</t>
+  </si>
+  <si>
+    <t>St. John</t>
+  </si>
+  <si>
+    <t>180 x 90 mm</t>
+  </si>
+  <si>
+    <t>TAG7</t>
+  </si>
+  <si>
+    <t>VALUE7</t>
+  </si>
+  <si>
+    <t>TAG8</t>
+  </si>
+  <si>
+    <t>VALUE8</t>
+  </si>
+  <si>
+    <t>TAG9</t>
+  </si>
+  <si>
+    <t>VALUE9</t>
+  </si>
+  <si>
+    <t>TAG10</t>
+  </si>
+  <si>
+    <t>VALUE10</t>
+  </si>
+  <si>
+    <t>TAG11</t>
+  </si>
+  <si>
+    <t>VALUE11</t>
+  </si>
+  <si>
+    <t>TAG12</t>
+  </si>
+  <si>
+    <t>VALUE12</t>
+  </si>
+  <si>
+    <t>toc 2</t>
+  </si>
+  <si>
+    <t>incipit 2</t>
+  </si>
+  <si>
+    <t>explicit 2</t>
+  </si>
+  <si>
+    <t>explicit 1</t>
+  </si>
+  <si>
+    <t>incipit 1</t>
+  </si>
+  <si>
+    <t>toc 1</t>
   </si>
 </sst>
 </file>
@@ -13110,6 +13167,159 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 23" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 23" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 23" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13284,6 +13494,159 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Rectangle 6" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 6" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 6" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -13587,11 +13950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14033,7 +14396,7 @@
         <v>218</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>4012</v>
+        <v>4032</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -14105,7 +14468,7 @@
         <v>218</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>4002</v>
+        <v>4035</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -14288,7 +14651,7 @@
         <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>4013</v>
+        <v>4034</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -14326,7 +14689,7 @@
         <v>461</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>4014</v>
+        <v>4033</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -14397,9 +14760,11 @@
         <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4003</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>4002</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4036</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -14433,7 +14798,7 @@
         <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -14469,10 +14834,10 @@
         <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4017</v>
+        <v>4013</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -14507,10 +14872,10 @@
         <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4018</v>
+        <v>4014</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -14545,10 +14910,10 @@
         <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4015</v>
+        <v>4011</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -14583,10 +14948,10 @@
         <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -14914,10 +15279,10 @@
         <v>79</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>4019</v>
+        <v>4015</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>4020</v>
+        <v>4016</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -15054,8 +15419,12 @@
       <c r="D41" s="31" t="s">
         <v>855</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3204</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -15196,7 +15565,7 @@
         <v>218</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>4021</v>
+        <v>4017</v>
       </c>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
@@ -15271,7 +15640,7 @@
         <v>932</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4022</v>
+        <v>4018</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -15378,7 +15747,7 @@
         <v>218</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
@@ -15414,7 +15783,7 @@
         <v>218</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>4023</v>
+        <v>4019</v>
       </c>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
@@ -15450,7 +15819,7 @@
         <v>218</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
@@ -15489,7 +15858,7 @@
         <v>1035</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4024</v>
+        <v>4020</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -15591,7 +15960,7 @@
         <v>1080</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4025</v>
+        <v>4037</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -15728,11 +16097,11 @@
         <v>218</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="50" t="s">
-        <v>4026</v>
+        <v>4021</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -15794,10 +16163,10 @@
         <v>218</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -15832,7 +16201,7 @@
         <v>218</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -15896,10 +16265,10 @@
         <v>218</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>4028</v>
+        <v>4023</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4030</v>
+        <v>4025</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -15934,7 +16303,7 @@
         <v>218</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>4029</v>
+        <v>4024</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -15998,10 +16367,10 @@
         <v>218</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>4031</v>
+        <v>4026</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4033</v>
+        <v>4028</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -16036,7 +16405,7 @@
         <v>218</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -16100,10 +16469,10 @@
         <v>218</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -16138,7 +16507,7 @@
         <v>218</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -42215,13 +42584,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42244,7 +42613,7 @@
     <col min="16" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -42265,7 +42634,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -42282,7 +42651,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
@@ -42328,8 +42697,44 @@
       <c r="O3" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="18" t="s">
+        <v>4038</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>4039</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>4040</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>4041</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>4042</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>4043</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>4044</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>4045</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>4046</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>4047</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>4048</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -42352,7 +42757,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -42379,7 +42784,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -42402,7 +42807,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -42425,7 +42830,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -42452,7 +42857,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -42475,7 +42880,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -42502,7 +42907,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>8</v>
       </c>
@@ -42525,7 +42930,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>9</v>
       </c>
@@ -42556,7 +42961,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>10</v>
       </c>
@@ -42566,20 +42971,44 @@
       <c r="C13" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D13" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3855</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4054</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4053</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>3849</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4050</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>3855</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>4051</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>131</v>
       </c>
@@ -42604,7 +43033,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>132</v>
       </c>
@@ -42627,7 +43056,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>133</v>
       </c>
@@ -42774,14 +43203,21 @@
       <c r="O21" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L5:L21 J5:J21 N5:N21">
-      <formula1>$A$3:$A$11</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'VALUE LISTS'!$B$3:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>T4:T21 P4:P21 R4:R21 N4:N21 L4:L21 J4:J21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
+++ b/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="4056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="4062">
   <si>
     <t>1r</t>
   </si>
@@ -12720,6 +12720,24 @@
   </si>
   <si>
     <t>toc 1</t>
+  </si>
+  <si>
+    <t>TAG13</t>
+  </si>
+  <si>
+    <t>VALUE13</t>
+  </si>
+  <si>
+    <t>TAG14</t>
+  </si>
+  <si>
+    <t>VALUE14</t>
+  </si>
+  <si>
+    <t>TAG15</t>
+  </si>
+  <si>
+    <t>VALUE15</t>
   </si>
 </sst>
 </file>
@@ -42584,13 +42602,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42611,9 +42629,10 @@
     <col min="14" max="14" width="8.1640625" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" customWidth="1"/>
     <col min="16" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -42634,7 +42653,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -42651,7 +42670,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>136</v>
       </c>
@@ -42733,8 +42752,26 @@
       <c r="AA3" s="19" t="s">
         <v>4049</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3" s="18" t="s">
+        <v>4056</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>4057</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>4058</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>4059</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>4060</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -42757,7 +42794,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -42784,7 +42821,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -42807,7 +42844,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -42830,7 +42867,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -42857,7 +42894,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -42880,7 +42917,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -42907,7 +42944,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>8</v>
       </c>
@@ -42930,7 +42967,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>9</v>
       </c>
@@ -42961,7 +42998,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>10</v>
       </c>
@@ -43008,7 +43045,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>131</v>
       </c>
@@ -43033,7 +43070,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>132</v>
       </c>
@@ -43056,7 +43093,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>133</v>
       </c>
@@ -43213,7 +43250,7 @@
           <x14:formula1>
             <xm:f>'VALUE LISTS'!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>T4:T21 P4:P21 R4:R21 N4:N21 L4:L21 J4:J21</xm:sqref>
+          <xm:sqref>N4:N21 L4:L21 J4:J21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
+++ b/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="4062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="4063">
   <si>
     <t>1r</t>
   </si>
@@ -12737,6 +12737,9 @@
   </si>
   <si>
     <t>Between 1490 and 1510</t>
+  </si>
+  <si>
+    <t>Another column; no lie</t>
   </si>
 </sst>
 </file>
@@ -13388,6 +13391,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 23" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13801,6 +13855,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 6" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14070,10 +14175,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15568,7 +15673,9 @@
       <c r="D44" s="31" t="s">
         <v>893</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>4062</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -42624,10 +42731,10 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3:AG3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
+++ b/openn/tests/data/bibliophilly/FLPLewisE087/openn_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -12899,7 +12899,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12965,6 +12965,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -13407,6 +13408,57 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Rectangle 23" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 23" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -13906,6 +13958,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 6" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14174,7 +14277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -42728,13 +42831,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:C21"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43364,6 +43467,11 @@
       <c r="M21" s="12"/>
       <c r="N21" s="7"/>
       <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
